--- a/biology/Biologie cellulaire et moléculaire/Cellule_excitable/Cellule_excitable.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_excitable/Cellule_excitable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cellule excitable est une cellule capable de décharger un potentiel d'action en réponse à une dépolarisation suffisante (supérieure à un certain seuil de dépolarisation) de son potentiel de membrane.
 La capacité à décharger un potentiel d'action dépend de la composition protéique de la membrane cytoplasmique, en particulier de la présence de canaux ioniques dont l'ouverture est activée par une dépolarisation de la membrane. Les canaux sodiques (mais aussi les canaux calciques) permettent une dépolarisation brutale de la membrane, tandis que les canaux potassiques repolarisent tout aussitôt celle-ci. La forme du potentiel d'action dépend des types de canaux ioniques présents dans la membrane.
@@ -513,7 +525,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neurone
 Cellule bêta des îlots de Langerhans
